--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema7a</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema7a</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H2">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I2">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J2">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>5008.906874317679</v>
+        <v>4559.349373663362</v>
       </c>
       <c r="R2">
-        <v>45080.1618688591</v>
+        <v>41034.14436297026</v>
       </c>
       <c r="S2">
-        <v>0.13971138440604</v>
+        <v>0.1418233041431385</v>
       </c>
       <c r="T2">
-        <v>0.1572358579940584</v>
+        <v>0.1546214331950799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H3">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I3">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J3">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>5360.251824560573</v>
+        <v>5531.043077886139</v>
       </c>
       <c r="R3">
-        <v>48242.26642104516</v>
+        <v>49779.38770097525</v>
       </c>
       <c r="S3">
-        <v>0.1495113049544117</v>
+        <v>0.1720488474068329</v>
       </c>
       <c r="T3">
-        <v>0.1682650158701163</v>
+        <v>0.1875745282225055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H4">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I4">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J4">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>2691.557556160307</v>
+        <v>3122.547914054221</v>
       </c>
       <c r="R4">
-        <v>24224.01800544277</v>
+        <v>28102.93122648799</v>
       </c>
       <c r="S4">
-        <v>0.07507451062981066</v>
+        <v>0.09713010042058083</v>
       </c>
       <c r="T4">
-        <v>0.08449136154900209</v>
+        <v>0.1058951166322749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H5">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I5">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J5">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>6133.653816515774</v>
+        <v>3405.373834464575</v>
       </c>
       <c r="R5">
-        <v>36801.92289909465</v>
+        <v>20432.24300678745</v>
       </c>
       <c r="S5">
-        <v>0.1710834894069664</v>
+        <v>0.1059276948233304</v>
       </c>
       <c r="T5">
-        <v>0.1283620484705411</v>
+        <v>0.07699107039138327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H6">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I6">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J6">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>3075.122205660548</v>
+        <v>3359.27384087154</v>
       </c>
       <c r="R6">
-        <v>27676.09985094493</v>
+        <v>30233.46456784386</v>
       </c>
       <c r="S6">
-        <v>0.08577312203056583</v>
+        <v>0.1044937065770889</v>
       </c>
       <c r="T6">
-        <v>0.09653193612418344</v>
+        <v>0.1139232143012889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H7">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I7">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J7">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>2424.013384971973</v>
+        <v>2138.321886850721</v>
       </c>
       <c r="R7">
-        <v>21816.12046474775</v>
+        <v>19244.89698165649</v>
       </c>
       <c r="S7">
-        <v>0.06761201083007529</v>
+        <v>0.06651472621653735</v>
       </c>
       <c r="T7">
-        <v>0.07609281504700957</v>
+        <v>0.07251701233669881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H8">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I8">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J8">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>2594.043470078537</v>
+        <v>2594.043470078536</v>
       </c>
       <c r="R8">
-        <v>23346.39123070683</v>
+        <v>23346.39123070682</v>
       </c>
       <c r="S8">
-        <v>0.07235459023451886</v>
+        <v>0.08069042002847709</v>
       </c>
       <c r="T8">
-        <v>0.0814302722981339</v>
+        <v>0.08797192016711122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -977,13 +977,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H9">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I9">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J9">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>1302.553971607587</v>
+        <v>1464.466089379182</v>
       </c>
       <c r="R9">
-        <v>11722.98574446828</v>
+        <v>13180.19480441263</v>
       </c>
       <c r="S9">
-        <v>0.0363316035221101</v>
+        <v>0.04555374080369202</v>
       </c>
       <c r="T9">
-        <v>0.04088879998137052</v>
+        <v>0.04966450847425716</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1039,13 +1039,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H10">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I10">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J10">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>2968.324092079275</v>
+        <v>1597.110641532954</v>
       </c>
       <c r="R10">
-        <v>17809.94455247565</v>
+        <v>9582.663849197725</v>
       </c>
       <c r="S10">
-        <v>0.08279424606525339</v>
+        <v>0.04967978755319121</v>
       </c>
       <c r="T10">
-        <v>0.06211960641759752</v>
+        <v>0.03610859300691854</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,13 +1101,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H11">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I11">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J11">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>1488.176477220115</v>
+        <v>1575.489875672569</v>
       </c>
       <c r="R11">
-        <v>13393.58829498104</v>
+        <v>14179.40888105313</v>
       </c>
       <c r="S11">
-        <v>0.04150909591451498</v>
+        <v>0.04900725114478671</v>
       </c>
       <c r="T11">
-        <v>0.04671572283406752</v>
+        <v>0.05342966344452321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H12">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I12">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J12">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>59.08566423315111</v>
+        <v>33.660988904469</v>
       </c>
       <c r="R12">
-        <v>531.77097809836</v>
+        <v>302.948900140221</v>
       </c>
       <c r="S12">
-        <v>0.001648052190966015</v>
+        <v>0.001047060068424096</v>
       </c>
       <c r="T12">
-        <v>0.001854772976212283</v>
+        <v>0.001141546725336993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H13">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I13">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J13">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>63.23017126451667</v>
+        <v>40.83485699742999</v>
       </c>
       <c r="R13">
-        <v>569.07154138065</v>
+        <v>367.51371297687</v>
       </c>
       <c r="S13">
-        <v>0.001763653225195968</v>
+        <v>0.001270210696517613</v>
       </c>
       <c r="T13">
-        <v>0.001984874240897493</v>
+        <v>0.00138483445680444</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H14">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I14">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J14">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>31.74993466995778</v>
+        <v>23.05330038882267</v>
       </c>
       <c r="R14">
-        <v>285.74941202962</v>
+        <v>207.479703499404</v>
       </c>
       <c r="S14">
-        <v>0.0008855879014810757</v>
+        <v>0.0007170968847952413</v>
       </c>
       <c r="T14">
-        <v>0.0009966702005746837</v>
+        <v>0.0007818076777767111</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H15">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I15">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J15">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>72.35331361084751</v>
+        <v>25.1413615108375</v>
       </c>
       <c r="R15">
-        <v>434.119881665085</v>
+        <v>150.848169065025</v>
       </c>
       <c r="S15">
-        <v>0.00201812129164667</v>
+        <v>0.0007820481976486875</v>
       </c>
       <c r="T15">
-        <v>0.001514174067618898</v>
+        <v>0.0005684134629290845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H16">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I16">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J16">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>36.27450912517057</v>
+        <v>24.80101220973</v>
       </c>
       <c r="R16">
-        <v>326.470582126535</v>
+        <v>223.20910988757</v>
       </c>
       <c r="S16">
-        <v>0.001011790000431477</v>
+        <v>0.0007714612786631195</v>
       </c>
       <c r="T16">
-        <v>0.00113870225754326</v>
+        <v>0.0008410779122802684</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H17">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I17">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J17">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>523.2579955231374</v>
+        <v>605.6098655632935</v>
       </c>
       <c r="R17">
-        <v>3139.547973138825</v>
+        <v>3633.659193379761</v>
       </c>
       <c r="S17">
-        <v>0.01459502058840443</v>
+        <v>0.01883812472279512</v>
       </c>
       <c r="T17">
-        <v>0.01095048240301457</v>
+        <v>0.01369205087482877</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H18">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I18">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J18">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>559.9614238387851</v>
+        <v>734.6781262634449</v>
       </c>
       <c r="R18">
-        <v>3359.768543032711</v>
+        <v>4408.06875758067</v>
       </c>
       <c r="S18">
-        <v>0.01561877425584021</v>
+        <v>0.02285292720716709</v>
       </c>
       <c r="T18">
-        <v>0.01171859344831065</v>
+        <v>0.01661011627026021</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H19">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I19">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J19">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>281.1749243917513</v>
+        <v>414.7622100137273</v>
       </c>
       <c r="R19">
-        <v>1687.049546350508</v>
+        <v>2488.573260082364</v>
       </c>
       <c r="S19">
-        <v>0.007842696806453692</v>
+        <v>0.01290160990900197</v>
       </c>
       <c r="T19">
-        <v>0.005884288607272086</v>
+        <v>0.009377233766134628</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H20">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I20">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J20">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>640.7552549477349</v>
+        <v>452.3294490208813</v>
       </c>
       <c r="R20">
-        <v>2563.02101979094</v>
+        <v>1809.317796083525</v>
       </c>
       <c r="S20">
-        <v>0.01787232343911122</v>
+        <v>0.01407017794950041</v>
       </c>
       <c r="T20">
-        <v>0.008939604304793373</v>
+        <v>0.00681772009819843</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H21">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I21">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J21">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>321.2441999217283</v>
+        <v>446.206072934895</v>
       </c>
       <c r="R21">
-        <v>1927.46519953037</v>
+        <v>2677.23643760937</v>
       </c>
       <c r="S21">
-        <v>0.008960332669309044</v>
+        <v>0.01387970396783055</v>
       </c>
       <c r="T21">
-        <v>0.006722838424659735</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.351698</v>
-      </c>
-      <c r="H22">
-        <v>1.055094</v>
-      </c>
-      <c r="I22">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J22">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>138.2190853333333</v>
-      </c>
-      <c r="N22">
-        <v>414.657256</v>
-      </c>
-      <c r="O22">
-        <v>0.2249223651785973</v>
-      </c>
-      <c r="P22">
-        <v>0.2476599003709697</v>
-      </c>
-      <c r="Q22">
-        <v>48.61137587356267</v>
-      </c>
-      <c r="R22">
-        <v>437.502382862064</v>
-      </c>
-      <c r="S22">
-        <v>0.001355897163111656</v>
-      </c>
-      <c r="T22">
-        <v>0.001525971950674867</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.351698</v>
-      </c>
-      <c r="H23">
-        <v>1.055094</v>
-      </c>
-      <c r="I23">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J23">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>147.91433</v>
-      </c>
-      <c r="N23">
-        <v>443.74299</v>
-      </c>
-      <c r="O23">
-        <v>0.2406993279341594</v>
-      </c>
-      <c r="P23">
-        <v>0.2650317656414439</v>
-      </c>
-      <c r="Q23">
-        <v>52.02117403234001</v>
-      </c>
-      <c r="R23">
-        <v>468.19056629106</v>
-      </c>
-      <c r="S23">
-        <v>0.001451005264192661</v>
-      </c>
-      <c r="T23">
-        <v>0.001633009783985543</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.351698</v>
-      </c>
-      <c r="H24">
-        <v>1.055094</v>
-      </c>
-      <c r="I24">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J24">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>74.27261733333333</v>
-      </c>
-      <c r="N24">
-        <v>222.817852</v>
-      </c>
-      <c r="O24">
-        <v>0.1208629960061633</v>
-      </c>
-      <c r="P24">
-        <v>0.1330811078998542</v>
-      </c>
-      <c r="Q24">
-        <v>26.12153097089866</v>
-      </c>
-      <c r="R24">
-        <v>235.093778738088</v>
-      </c>
-      <c r="S24">
-        <v>0.0007285971463078238</v>
-      </c>
-      <c r="T24">
-        <v>0.0008199875616348161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.351698</v>
-      </c>
-      <c r="H25">
-        <v>1.055094</v>
-      </c>
-      <c r="I25">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J25">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>169.2560955</v>
-      </c>
-      <c r="N25">
-        <v>338.512191</v>
-      </c>
-      <c r="O25">
-        <v>0.275428543235871</v>
-      </c>
-      <c r="P25">
-        <v>0.2021811852664618</v>
-      </c>
-      <c r="Q25">
-        <v>59.52703027515901</v>
-      </c>
-      <c r="R25">
-        <v>357.162181650954</v>
-      </c>
-      <c r="S25">
-        <v>0.001660363032893403</v>
-      </c>
-      <c r="T25">
-        <v>0.00124575200591086</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.351698</v>
-      </c>
-      <c r="H26">
-        <v>1.055094</v>
-      </c>
-      <c r="I26">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J26">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>84.85695366666668</v>
-      </c>
-      <c r="N26">
-        <v>254.570861</v>
-      </c>
-      <c r="O26">
-        <v>0.138086767645209</v>
-      </c>
-      <c r="P26">
-        <v>0.1520460408212704</v>
-      </c>
-      <c r="Q26">
-        <v>29.84402089065934</v>
-      </c>
-      <c r="R26">
-        <v>268.596188015934</v>
-      </c>
-      <c r="S26">
-        <v>0.0008324270303876986</v>
-      </c>
-      <c r="T26">
-        <v>0.0009368411808164533</v>
+        <v>0.0100881385834089</v>
       </c>
     </row>
   </sheetData>
